--- a/Sprint Retrospectives.xlsx
+++ b/Sprint Retrospectives.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Sprint </t>
   </si>
@@ -57,12 +57,6 @@
     <t>(Try doing)</t>
   </si>
   <si>
-    <t>Arbetsfördelning ledde inte</t>
-  </si>
-  <si>
-    <t>till överlappande arbete</t>
-  </si>
-  <si>
     <t>Ingen synkad fysisk kontakt</t>
   </si>
   <si>
@@ -127,6 +121,108 @@
   </si>
   <si>
     <t>Sprintuppföljning | Sprint Retrosepectives - reflection</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>Teamet lyckades leverera</t>
+  </si>
+  <si>
+    <t>värde trots lite avsatt tid</t>
+  </si>
+  <si>
+    <t>under sprinten</t>
+  </si>
+  <si>
+    <t>Tog lång tid att få svar från</t>
+  </si>
+  <si>
+    <t>utvecklare på Slack</t>
+  </si>
+  <si>
+    <t>Tagga berörd/berörda utvecklare vid</t>
+  </si>
+  <si>
+    <t>kommunikation via Slack</t>
+  </si>
+  <si>
+    <t>Lägga mer tid vid sprintplaneringen bl.a.</t>
+  </si>
+  <si>
+    <t>sprint backlog</t>
+  </si>
+  <si>
+    <t>för att säkterställa en ändamålsenlig</t>
+  </si>
+  <si>
+    <t>Sprint backloggen var inte</t>
+  </si>
+  <si>
+    <t>tillräckligt genomarbetad</t>
+  </si>
+  <si>
+    <t>Genom arbetsfördelningen</t>
+  </si>
+  <si>
+    <t>kunde överlappande arbete</t>
+  </si>
+  <si>
+    <t>undvikas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyckades fånga upp och </t>
+  </si>
+  <si>
+    <t xml:space="preserve">korrigera det som inte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">godkändes av PO vid </t>
+  </si>
+  <si>
+    <t>sprint review #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamet lyckades fokusera på </t>
+  </si>
+  <si>
+    <t>rätt saker</t>
+  </si>
+  <si>
+    <t>Resonera kring arbetsuppgift/specialisering i relation till User Stories vertikala karaktär</t>
+  </si>
+  <si>
+    <t>Vikten av ordentliga sprintplaneringar</t>
+  </si>
+  <si>
+    <t>Delvis överlappande arbete</t>
+  </si>
+  <si>
+    <t>Ett agilt förhållningssätt första sprinten fick input om att kaptenen är mobil</t>
+  </si>
+  <si>
+    <t>och inte stationär i sitt arbete</t>
+  </si>
+  <si>
+    <t>Tydligare arbetsuppdelning vid</t>
+  </si>
+  <si>
+    <t>sprintplaneringen</t>
+  </si>
+  <si>
+    <t>Koppla till lärmål</t>
+  </si>
+  <si>
+    <t>Svårigheter med att uppskatta effort för enskilda user stories</t>
+  </si>
+  <si>
+    <t>Genom emulatorn har appen/produkten/prtotypen kontinuerligt testats</t>
+  </si>
+  <si>
+    <t>under utvecklingen. Färst på slutet gjordes mer ordentliga tester</t>
+  </si>
+  <si>
+    <t>Black-boxing?</t>
   </si>
 </sst>
 </file>
@@ -487,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H36"/>
+  <dimension ref="C2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,7 +594,7 @@
     <col min="1" max="1" width="21" style="2"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="43.1640625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="21" style="2"/>
@@ -507,7 +603,7 @@
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -538,7 +634,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -553,67 +649,72 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -623,149 +724,191 @@
       <c r="F14" s="4"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7"/>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="H16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="8"/>
-      <c r="D19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="H22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="8"/>
+      <c r="D23" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="8"/>
+      <c r="H24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="8"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="8"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="8"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="8"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
@@ -777,21 +920,79 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="8"/>
+      <c r="D39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="8"/>
+      <c r="D40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
